--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang12/3.BaoGiaBH/BG211206_TechGlobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang12/3.BaoGiaBH/BG211206_TechGlobal.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="46">
   <si>
     <t xml:space="preserve">STT </t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>VT_Module_SIM900A</t>
+  </si>
+  <si>
+    <t>Note đỏ khách không sửa chữa</t>
   </si>
 </sst>
 </file>
@@ -266,7 +269,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -279,6 +282,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="29">
     <border>
@@ -630,7 +639,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -720,6 +729,51 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -762,58 +816,28 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="3" borderId="28" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1172,8 +1196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA50"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="130" zoomScaleNormal="84" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="130" zoomScaleNormal="84" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1201,94 +1225,94 @@
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
     </row>
     <row r="3" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="50"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="65"/>
     </row>
     <row r="4" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="43"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="58"/>
     </row>
     <row r="5" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
-      <c r="E5" s="44" t="s">
+      <c r="E5" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="46"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="61"/>
     </row>
     <row r="6" spans="1:27" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="38" t="s">
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="40"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="55"/>
     </row>
     <row r="7" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
       <c r="G7" s="12"/>
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
@@ -1296,10 +1320,10 @@
     </row>
     <row r="8" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="58"/>
+      <c r="C8" s="45"/>
       <c r="D8" s="29"/>
       <c r="E8" s="30"/>
       <c r="F8" s="30"/>
@@ -1310,13 +1334,13 @@
     </row>
     <row r="9" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
       <c r="G9" s="13"/>
       <c r="H9" s="20"/>
       <c r="I9" s="20"/>
@@ -1324,10 +1348,10 @@
     </row>
     <row r="10" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="58"/>
+      <c r="C10" s="45"/>
       <c r="D10" s="29"/>
       <c r="E10" s="30"/>
       <c r="F10" s="30"/>
@@ -1339,10 +1363,10 @@
     </row>
     <row r="11" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="59"/>
+      <c r="C11" s="46"/>
       <c r="D11" s="31"/>
       <c r="E11" s="32"/>
       <c r="F11" s="32"/>
@@ -1404,16 +1428,16 @@
       <c r="F13" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="62" t="s">
+      <c r="G13" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="62">
+      <c r="H13" s="37">
         <v>1</v>
       </c>
-      <c r="I13" s="63">
+      <c r="I13" s="38">
         <v>275000</v>
       </c>
-      <c r="J13" s="63">
+      <c r="J13" s="38">
         <f>SUM(H13*I13)</f>
         <v>275000</v>
       </c>
@@ -1438,16 +1462,16 @@
       <c r="F14" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="62" t="s">
+      <c r="G14" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="H14" s="62">
+      <c r="H14" s="37">
         <v>1</v>
       </c>
-      <c r="I14" s="63">
+      <c r="I14" s="38">
         <v>275000</v>
       </c>
-      <c r="J14" s="63">
+      <c r="J14" s="38">
         <f t="shared" ref="J14:J20" si="0">SUM(H14*I14)</f>
         <v>275000</v>
       </c>
@@ -1472,16 +1496,16 @@
       <c r="F15" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="62" t="s">
+      <c r="G15" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="62">
+      <c r="H15" s="37">
         <v>1</v>
       </c>
-      <c r="I15" s="63">
+      <c r="I15" s="38">
         <v>275000</v>
       </c>
-      <c r="J15" s="63">
+      <c r="J15" s="38">
         <f t="shared" si="0"/>
         <v>275000</v>
       </c>
@@ -1506,16 +1530,16 @@
       <c r="F16" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="62" t="s">
+      <c r="G16" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="62">
+      <c r="H16" s="37">
         <v>1</v>
       </c>
-      <c r="I16" s="63">
+      <c r="I16" s="38">
         <v>63000</v>
       </c>
-      <c r="J16" s="63">
+      <c r="J16" s="38">
         <f t="shared" si="0"/>
         <v>63000</v>
       </c>
@@ -1528,28 +1552,28 @@
       <c r="B17" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="64">
+      <c r="C17" s="39">
         <v>867330021519098</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="65" t="s">
+      <c r="E17" s="40" t="s">
         <v>37</v>
       </c>
       <c r="F17" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="62" t="s">
+      <c r="G17" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="H17" s="62">
+      <c r="H17" s="37">
         <v>1</v>
       </c>
-      <c r="I17" s="63">
+      <c r="I17" s="38">
         <v>12000</v>
       </c>
-      <c r="J17" s="63">
+      <c r="J17" s="38">
         <f t="shared" si="0"/>
         <v>12000</v>
       </c>
@@ -1574,104 +1598,104 @@
       <c r="F18" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="G18" s="62" t="s">
+      <c r="G18" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="H18" s="62">
+      <c r="H18" s="37">
         <v>1</v>
       </c>
-      <c r="I18" s="63">
+      <c r="I18" s="38">
         <v>38000</v>
       </c>
-      <c r="J18" s="63">
+      <c r="J18" s="38">
         <f t="shared" si="0"/>
         <v>38000</v>
       </c>
       <c r="AA18" s="15"/>
     </row>
     <row r="19" spans="1:27" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25">
+      <c r="A19" s="66">
         <v>7</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="66" t="s">
+      <c r="C19" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="67" t="s">
+      <c r="E19" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="68" t="s">
+      <c r="F19" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="G19" s="62" t="s">
+      <c r="G19" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="H19" s="62">
+      <c r="H19" s="70">
         <v>1</v>
       </c>
-      <c r="I19" s="63">
+      <c r="I19" s="71">
         <v>138000</v>
       </c>
-      <c r="J19" s="63">
+      <c r="J19" s="71">
         <f t="shared" si="0"/>
         <v>138000</v>
       </c>
       <c r="AA19" s="15"/>
     </row>
     <row r="20" spans="1:27" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="25">
+      <c r="A20" s="66">
         <v>8</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="28">
+      <c r="C20" s="72">
         <v>865904020081524</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="36" t="s">
+      <c r="E20" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="25" t="s">
+      <c r="F20" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="62" t="s">
+      <c r="G20" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="H20" s="62">
+      <c r="H20" s="70">
         <v>1</v>
       </c>
-      <c r="I20" s="63">
+      <c r="I20" s="71">
         <v>450000</v>
       </c>
-      <c r="J20" s="63">
+      <c r="J20" s="71">
         <f t="shared" si="0"/>
         <v>450000</v>
       </c>
       <c r="AA20" s="15"/>
     </row>
     <row r="21" spans="1:27" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
       <c r="J21" s="27">
-        <f>SUM(J13:J20)</f>
-        <v>1526000</v>
+        <f>SUM(J13:J18)</f>
+        <v>938000</v>
       </c>
       <c r="AA21" s="15"/>
     </row>
@@ -1690,10 +1714,12 @@
     </row>
     <row r="23" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="35"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
+      <c r="B23" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
       <c r="F23" s="35"/>
       <c r="G23" s="35"/>
       <c r="H23" s="35"/>
@@ -1706,31 +1732,31 @@
       <c r="B24" s="33"/>
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
-      <c r="E24" s="52" t="s">
+      <c r="E24" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
       <c r="J24" s="33"/>
       <c r="AA24" s="15"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A25" s="53" t="s">
+      <c r="A25" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="53"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53" t="s">
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="53"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="51"/>
       <c r="AA25" s="15"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
@@ -1788,20 +1814,20 @@
       <c r="AA29" s="15"/>
     </row>
     <row r="30" spans="1:27" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="51" t="s">
+      <c r="A30" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="51"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51" t="s">
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="51"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
       <c r="AA30" s="15"/>
     </row>
     <row r="31" spans="1:27" ht="17.25" x14ac:dyDescent="0.25">
@@ -1879,6 +1905,15 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="18">
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E1:J2"/>
+    <mergeCell ref="E3:J3"/>
+    <mergeCell ref="F30:J30"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="A30:E30"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="B8:C8"/>
@@ -1886,17 +1921,8 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B9:F9"/>
-    <mergeCell ref="F30:J30"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="A30:E30"/>
     <mergeCell ref="A21:I21"/>
     <mergeCell ref="E6:J6"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E1:J2"/>
-    <mergeCell ref="E3:J3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1"/>
